--- a/Holy Sites.xlsx
+++ b/Holy Sites.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\Gaming\Europa Universalis IV Modding\My Mods\Convert to Religion Mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dropbox\Gaming\Europa Universalis IV Modding\My Mods\Convert to Religion Mod\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="11625" xr2:uid="{FD5413E5-CFD3-432B-A479-E13EBF960096}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Holy Sites" sheetId="1" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1526,18 +1526,12 @@
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1668,6 +1662,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1996,10 +1996,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0471FF2-03C5-4A75-8446-53CDBE7CC87C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
@@ -2013,2638 +2013,2638 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="55" t="s">
         <v>404</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="70" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="38"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="34" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36" t="s">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="34" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36" t="s">
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="34" t="s">
+      <c r="D82" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E82" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34" t="s">
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="32" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34" t="s">
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34" t="s">
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34" t="s">
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E90" s="33"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C93" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33" t="s">
+      <c r="A94" s="31"/>
+      <c r="B94" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="32" t="s">
+      <c r="B99" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="32" t="s">
+      <c r="C99" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="C100" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32" t="s">
+      <c r="A102" s="30"/>
+      <c r="B102" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="32" t="s">
+      <c r="C103" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B104" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C104" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D104" s="32" t="s">
+      <c r="D104" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E104" s="32"/>
+      <c r="E104" s="30"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="31" t="s">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
-      <c r="B110" s="31" t="s">
+      <c r="A110" s="29"/>
+      <c r="B110" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="31" t="s">
+      <c r="C111" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31" t="s">
+      <c r="A115" s="29"/>
+      <c r="B115" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="31" t="s">
+      <c r="A116" s="29"/>
+      <c r="B116" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30" t="s">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30" t="s">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30" t="s">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="C127" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C132" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29" t="s">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C134" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29" t="s">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29" t="s">
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E137" s="29"/>
+      <c r="E137" s="27"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="29" t="s">
+      <c r="A138" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B138" s="29" t="s">
+      <c r="B138" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C138" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29" t="s">
+      <c r="D138" s="27"/>
+      <c r="E138" s="27" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="28" t="s">
+      <c r="A142" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B142" s="28" t="s">
+      <c r="B142" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B143" s="28" t="s">
+      <c r="B143" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="28"/>
-      <c r="B144" s="28" t="s">
+      <c r="A144" s="26"/>
+      <c r="B144" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D144" s="28"/>
-      <c r="E144" s="28" t="s">
+      <c r="D144" s="26"/>
+      <c r="E144" s="26" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28" t="s">
+      <c r="A145" s="26"/>
+      <c r="B145" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="28"/>
-      <c r="B146" s="28" t="s">
+      <c r="A146" s="26"/>
+      <c r="B146" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="28"/>
-      <c r="B147" s="28" t="s">
+      <c r="A147" s="26"/>
+      <c r="B147" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B148" s="28" t="s">
+      <c r="B148" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28" t="s">
+      <c r="A149" s="26"/>
+      <c r="B149" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28" t="s">
+      <c r="A150" s="26"/>
+      <c r="B150" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="28" t="s">
+      <c r="A151" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B151" s="28" t="s">
+      <c r="B151" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C151" s="28" t="s">
+      <c r="C151" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="D151" s="28" t="s">
+      <c r="D151" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="E151" s="28"/>
+      <c r="E151" s="26"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="28"/>
-      <c r="B152" s="28" t="s">
+      <c r="A152" s="26"/>
+      <c r="B152" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="28"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B153" s="28" t="s">
+      <c r="B153" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C153" s="28" t="s">
+      <c r="C153" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="E156" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B157" s="27" t="s">
+      <c r="B157" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
+      <c r="A161" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B161" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="26" t="s">
+      <c r="A162" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="26" t="s">
+      <c r="A163" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B163" s="26" t="s">
+      <c r="B163" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C163" s="26" t="s">
+      <c r="C163" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26" t="s">
+      <c r="A164" s="24"/>
+      <c r="B164" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="26" t="s">
+      <c r="A165" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B165" s="26" t="s">
+      <c r="B165" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C165" s="26" t="s">
+      <c r="C165" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="26" t="s">
+      <c r="A166" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C166" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
     </row>
     <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="E169" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B170" s="25" t="s">
+      <c r="B170" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C170" s="25" t="s">
+      <c r="C170" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="23"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B171" s="25" t="s">
+      <c r="B171" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D171" s="25"/>
-      <c r="E171" s="25"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B172" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="23"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B173" s="25" t="s">
+      <c r="B173" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D173" s="25"/>
-      <c r="E173" s="25"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="23"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C174" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="C176" s="6"/>
+      <c r="C176" s="71"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="24" t="s">
+      <c r="A178" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="24" t="s">
+      <c r="A179" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B179" s="24" t="s">
+      <c r="B179" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="24" t="s">
+      <c r="A180" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D180" s="23"/>
-      <c r="E180" s="23"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="24"/>
-      <c r="B181" s="24" t="s">
+      <c r="A181" s="22"/>
+      <c r="B181" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C181" s="24"/>
-      <c r="D181" s="23"/>
-      <c r="E181" s="23"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="24" t="s">
+      <c r="A182" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D182" s="23"/>
-      <c r="E182" s="23"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="24" t="s">
+      <c r="A183" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D183" s="23"/>
-      <c r="E183" s="23"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="E186" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="22" t="s">
+      <c r="A187" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D187" s="22" t="s">
+      <c r="D187" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="E187" s="22"/>
+      <c r="E187" s="20"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="22"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22" t="s">
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="E188" s="22"/>
+      <c r="E188" s="20"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="22"/>
-      <c r="B189" s="22"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="22" t="s">
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="E189" s="22"/>
+      <c r="E189" s="20"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="22"/>
-      <c r="B190" s="22"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="22" t="s">
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E190" s="22"/>
+      <c r="E190" s="20"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="22"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22" t="s">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E191" s="22"/>
+      <c r="E191" s="20"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="E194" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="14" t="s">
+      <c r="A195" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B195" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="C195" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="14" t="s">
+      <c r="A196" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C196" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="14" t="s">
+      <c r="A197" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B197" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C197" s="14" t="s">
+      <c r="C197" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="14" t="s">
+      <c r="A198" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B198" s="14" t="s">
+      <c r="B198" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C198" s="14" t="s">
+      <c r="C198" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B199" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C199" s="14" t="s">
+      <c r="C199" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D199" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E199" s="14"/>
+      <c r="E199" s="12"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14" t="s">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E200" s="14"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6" t="s">
+      <c r="C202" s="71"/>
+      <c r="D202" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="E202" s="6"/>
+      <c r="E202" s="71"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="D203" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="E203" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="21"/>
-      <c r="B204" s="21"/>
-      <c r="C204" s="21"/>
-      <c r="D204" s="21" t="s">
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="E204" s="21"/>
+      <c r="E204" s="19"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="21"/>
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21" t="s">
+      <c r="A205" s="19"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E205" s="21"/>
+      <c r="E205" s="19"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="21"/>
-      <c r="B206" s="21"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21" t="s">
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="E206" s="21"/>
+      <c r="E206" s="19"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="21"/>
-      <c r="B207" s="21"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="21" t="s">
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="E207" s="21"/>
+      <c r="E207" s="19"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="21"/>
-      <c r="B208" s="21"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="21" t="s">
+      <c r="A208" s="19"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="E208" s="21"/>
+      <c r="E208" s="19"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6" t="s">
+      <c r="C210" s="71"/>
+      <c r="D210" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="E210" s="6"/>
+      <c r="E210" s="71"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D211" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E211" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="20"/>
-      <c r="D212" s="20" t="s">
+      <c r="A212" s="18"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="E212" s="20"/>
+      <c r="E212" s="18"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="20" t="s">
+      <c r="A213" s="18"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="E213" s="20"/>
+      <c r="E213" s="18"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="20"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
-      <c r="D214" s="20" t="s">
+      <c r="A214" s="18"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="E214" s="20"/>
+      <c r="E214" s="18"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="20"/>
-      <c r="D215" s="20" t="s">
+      <c r="A215" s="18"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E215" s="20"/>
+      <c r="E215" s="18"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
-      <c r="B216" s="20"/>
-      <c r="C216" s="20"/>
-      <c r="D216" s="20" t="s">
+      <c r="A216" s="18"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E216" s="20"/>
+      <c r="E216" s="18"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="D219" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E219" s="4" t="s">
+      <c r="E219" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="19" t="s">
+      <c r="A220" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B220" s="19" t="s">
+      <c r="B220" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C220" s="19" t="s">
+      <c r="C220" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19" t="s">
+      <c r="D220" s="17"/>
+      <c r="E220" s="17" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="19"/>
-      <c r="B221" s="19" t="s">
+      <c r="A221" s="17"/>
+      <c r="B221" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="19"/>
-      <c r="B222" s="19" t="s">
+      <c r="A222" s="17"/>
+      <c r="B222" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="19"/>
+      <c r="C222" s="17"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="19" t="s">
+      <c r="A223" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B223" s="19" t="s">
+      <c r="B223" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C223" s="19" t="s">
+      <c r="C223" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19" t="s">
+      <c r="D223" s="17"/>
+      <c r="E223" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="19"/>
-      <c r="B224" s="19" t="s">
+      <c r="A224" s="17"/>
+      <c r="B224" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
+      <c r="C224" s="17"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="19"/>
-      <c r="B225" s="19" t="s">
+      <c r="A225" s="17"/>
+      <c r="B225" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="19" t="s">
+      <c r="A226" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B226" s="19" t="s">
+      <c r="B226" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C226" s="19" t="s">
+      <c r="C226" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19" t="s">
+      <c r="D226" s="17"/>
+      <c r="E226" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="19" t="s">
+      <c r="A227" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B227" s="19" t="s">
+      <c r="B227" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C227" s="19" t="s">
+      <c r="C227" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D227" s="19"/>
-      <c r="E227" s="19"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="19" t="s">
+      <c r="A228" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B228" s="19" t="s">
+      <c r="B228" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C228" s="19" t="s">
+      <c r="C228" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D231" s="4" t="s">
+      <c r="D231" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E231" s="4" t="s">
+      <c r="E231" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="18" t="s">
+      <c r="A232" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C232" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="D232" s="18"/>
-      <c r="E232" s="18" t="s">
+      <c r="D232" s="16"/>
+      <c r="E232" s="16" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="18"/>
-      <c r="B233" s="18" t="s">
+      <c r="A233" s="16"/>
+      <c r="B233" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="18"/>
-      <c r="B234" s="18" t="s">
+      <c r="A234" s="16"/>
+      <c r="B234" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
+      <c r="C234" s="16"/>
+      <c r="D234" s="16"/>
+      <c r="E234" s="16"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="18" t="s">
+      <c r="A235" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B235" s="18" t="s">
+      <c r="B235" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C235" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18" t="s">
+      <c r="D235" s="16"/>
+      <c r="E235" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="18"/>
-      <c r="B236" s="18" t="s">
+      <c r="A236" s="16"/>
+      <c r="B236" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="18"/>
-      <c r="B237" s="18" t="s">
+      <c r="A237" s="16"/>
+      <c r="B237" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C237" s="18"/>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="18" t="s">
+      <c r="A238" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B238" s="18" t="s">
+      <c r="B238" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D238" s="18"/>
-      <c r="E238" s="18" t="s">
+      <c r="D238" s="16"/>
+      <c r="E238" s="16" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="18" t="s">
+      <c r="A239" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B239" s="18" t="s">
+      <c r="B239" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18" t="s">
+      <c r="C239" s="16"/>
+      <c r="D239" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="E239" s="18" t="s">
+      <c r="E239" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="18"/>
-      <c r="B240" s="18"/>
-      <c r="C240" s="18" t="s">
+      <c r="A240" s="16"/>
+      <c r="B240" s="16"/>
+      <c r="C240" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D240" s="18" t="s">
+      <c r="D240" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E240" s="18" t="s">
+      <c r="E240" s="16" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="18" t="s">
+      <c r="A241" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B241" s="18" t="s">
+      <c r="B241" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C241" s="18" t="s">
+      <c r="C241" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D241" s="18"/>
-      <c r="E241" s="18"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D244" s="4" t="s">
+      <c r="D244" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E244" s="4" t="s">
+      <c r="E244" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="17" t="s">
+      <c r="A245" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B245" s="17" t="s">
+      <c r="B245" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C245" s="17" t="s">
+      <c r="C245" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D245" s="17"/>
-      <c r="E245" s="17" t="s">
+      <c r="D245" s="15"/>
+      <c r="E245" s="15" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="17"/>
-      <c r="B246" s="17" t="s">
+      <c r="A246" s="15"/>
+      <c r="B246" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C246" s="17"/>
-      <c r="D246" s="17"/>
-      <c r="E246" s="17"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="17"/>
-      <c r="B247" s="17" t="s">
+      <c r="A247" s="15"/>
+      <c r="B247" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C247" s="17"/>
-      <c r="D247" s="17"/>
-      <c r="E247" s="17"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="17" t="s">
+      <c r="A248" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B248" s="17" t="s">
+      <c r="B248" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C248" s="17" t="s">
+      <c r="C248" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D248" s="17"/>
-      <c r="E248" s="17" t="s">
+      <c r="D248" s="15"/>
+      <c r="E248" s="15" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="17"/>
-      <c r="B249" s="17" t="s">
+      <c r="A249" s="15"/>
+      <c r="B249" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C249" s="17"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="17"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="17"/>
-      <c r="B250" s="17" t="s">
+      <c r="A250" s="15"/>
+      <c r="B250" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C250" s="17"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="17"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B251" s="17" t="s">
+      <c r="B251" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C251" s="17" t="s">
+      <c r="C251" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D251" s="17"/>
-      <c r="E251" s="17" t="s">
+      <c r="D251" s="15"/>
+      <c r="E251" s="15" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="17" t="s">
+      <c r="A252" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B252" s="17" t="s">
+      <c r="B252" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C252" s="17" t="s">
+      <c r="C252" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D252" s="17" t="s">
+      <c r="D252" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E252" s="17"/>
+      <c r="E252" s="15"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="17"/>
-      <c r="B253" s="17" t="s">
+      <c r="A253" s="15"/>
+      <c r="B253" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="17" t="s">
+      <c r="A254" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B254" s="17" t="s">
+      <c r="B254" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C254" s="17"/>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
+      <c r="C254" s="15"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="15"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="17"/>
-      <c r="B255" s="17" t="s">
+      <c r="A255" s="15"/>
+      <c r="B255" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C255" s="17" t="s">
+      <c r="C255" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D255" s="17"/>
-      <c r="E255" s="17"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
     </row>
     <row r="257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D258" s="4" t="s">
+      <c r="D258" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E258" s="4" t="s">
+      <c r="E258" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="16" t="s">
+      <c r="A259" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C259" s="16" t="s">
+      <c r="C259" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D259" s="16"/>
-      <c r="E259" s="16"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="16" t="s">
+      <c r="A260" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B260" s="16" t="s">
+      <c r="B260" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C260" s="16" t="s">
+      <c r="C260" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D260" s="16"/>
-      <c r="E260" s="16"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="16" t="s">
+      <c r="A261" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B261" s="16" t="s">
+      <c r="B261" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C261" s="16" t="s">
+      <c r="C261" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D261" s="16"/>
-      <c r="E261" s="16" t="s">
+      <c r="D261" s="14"/>
+      <c r="E261" s="14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="16" t="s">
+      <c r="A262" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="B262" s="16" t="s">
+      <c r="B262" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C262" s="16" t="s">
+      <c r="C262" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D262" s="16"/>
-      <c r="E262" s="16"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="16" t="s">
+      <c r="A263" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="B263" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C263" s="16" t="s">
+      <c r="C263" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D263" s="16"/>
-      <c r="E263" s="16"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
     </row>
     <row r="265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="C265" s="6"/>
+      <c r="C265" s="71"/>
       <c r="D265" t="s">
         <v>320</v>
       </c>
@@ -4653,963 +4653,953 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D266" s="4" t="s">
+      <c r="D266" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="E266" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="15" t="s">
+      <c r="A267" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="B267" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D267" s="15"/>
-      <c r="E267" s="15"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="15" t="s">
+      <c r="A268" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="B268" s="15" t="s">
+      <c r="B268" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D268" s="15"/>
-      <c r="E268" s="15"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="15" t="s">
+      <c r="A269" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B269" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D269" s="15"/>
-      <c r="E269" s="15"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="15"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="15"/>
-      <c r="D270" s="15" t="s">
+      <c r="A270" s="13"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="E270" s="15"/>
+      <c r="E270" s="13"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="15" t="s">
+      <c r="A271" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="B271" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C271" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D271" s="15"/>
-      <c r="E271" s="15" t="s">
+      <c r="D271" s="13"/>
+      <c r="E271" s="13" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="15" t="s">
+      <c r="A272" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="B272" s="15" t="s">
+      <c r="B272" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D272" s="15"/>
-      <c r="E272" s="15"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
     </row>
     <row r="274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C274" s="6"/>
+      <c r="C274" s="71"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D275" s="4" t="s">
+      <c r="D275" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E275" s="4" t="s">
+      <c r="E275" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="15"/>
-      <c r="B276" s="15"/>
-      <c r="C276" s="15"/>
-      <c r="D276" s="15" t="s">
+      <c r="A276" s="13"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="E276" s="15" t="s">
+      <c r="E276" s="13" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="15"/>
-      <c r="B277" s="15"/>
-      <c r="C277" s="15"/>
-      <c r="D277" s="15" t="s">
+      <c r="A277" s="13"/>
+      <c r="B277" s="13"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="E277" s="15"/>
+      <c r="E277" s="13"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="15"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="15"/>
-      <c r="D278" s="15" t="s">
+      <c r="A278" s="13"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E278" s="15"/>
+      <c r="E278" s="13"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="15"/>
-      <c r="B279" s="15"/>
-      <c r="C279" s="15"/>
-      <c r="D279" s="15" t="s">
+      <c r="A279" s="13"/>
+      <c r="B279" s="13"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E279" s="15"/>
+      <c r="E279" s="13"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
-      <c r="B280" s="15"/>
-      <c r="C280" s="15"/>
-      <c r="D280" s="15" t="s">
+      <c r="A280" s="13"/>
+      <c r="B280" s="13"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="E280" s="15" t="s">
+      <c r="E280" s="13" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C282" s="6"/>
+      <c r="C282" s="71"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D283" s="4" t="s">
+      <c r="D283" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E283" s="4" t="s">
+      <c r="E283" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="14"/>
-      <c r="B284" s="14"/>
-      <c r="C284" s="14"/>
-      <c r="D284" s="14" t="s">
+      <c r="A284" s="12"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E284" s="14" t="s">
+      <c r="E284" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
-      <c r="B285" s="14"/>
-      <c r="C285" s="14"/>
-      <c r="D285" s="14" t="s">
+      <c r="A285" s="12"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E285" s="14"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="14"/>
-      <c r="B286" s="14"/>
-      <c r="C286" s="14"/>
-      <c r="D286" s="14" t="s">
+      <c r="A286" s="12"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E286" s="14"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
-      <c r="B287" s="14"/>
-      <c r="C287" s="14"/>
-      <c r="D287" s="14" t="s">
+      <c r="A287" s="12"/>
+      <c r="B287" s="12"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="E287" s="14" t="s">
+      <c r="E287" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
-      <c r="B288" s="14"/>
-      <c r="C288" s="14"/>
-      <c r="D288" s="14" t="s">
+      <c r="A288" s="12"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E288" s="14"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C290" s="6"/>
+      <c r="C290" s="71"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D291" s="4" t="s">
+      <c r="D291" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E291" s="4" t="s">
+      <c r="E291" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="13"/>
-      <c r="B292" s="13"/>
-      <c r="C292" s="13"/>
-      <c r="D292" s="13" t="s">
+      <c r="A292" s="11"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E292" s="13" t="s">
+      <c r="E292" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="13"/>
-      <c r="B293" s="13"/>
-      <c r="C293" s="13"/>
-      <c r="D293" s="13" t="s">
+      <c r="A293" s="11"/>
+      <c r="B293" s="11"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E293" s="13"/>
+      <c r="E293" s="11"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="13"/>
-      <c r="B294" s="13"/>
-      <c r="C294" s="13"/>
-      <c r="D294" s="13" t="s">
+      <c r="A294" s="11"/>
+      <c r="B294" s="11"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E294" s="13"/>
+      <c r="E294" s="11"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
-      <c r="B295" s="13"/>
-      <c r="C295" s="13"/>
-      <c r="D295" s="13" t="s">
+      <c r="A295" s="11"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E295" s="13" t="s">
+      <c r="E295" s="11" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="13"/>
-      <c r="B296" s="13"/>
-      <c r="C296" s="13"/>
-      <c r="D296" s="13" t="s">
+      <c r="A296" s="11"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E296" s="13"/>
+      <c r="E296" s="11"/>
     </row>
     <row r="298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="C298" s="6"/>
+      <c r="C298" s="71"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C299" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D299" s="4" t="s">
+      <c r="D299" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E299" s="4" t="s">
+      <c r="E299" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="12" t="s">
+      <c r="A300" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B300" s="12"/>
-      <c r="C300" s="12"/>
-      <c r="D300" s="12"/>
-      <c r="E300" s="12"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="12" t="s">
+      <c r="A301" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B301" s="12"/>
-      <c r="C301" s="12"/>
-      <c r="D301" s="12"/>
-      <c r="E301" s="12"/>
+      <c r="B301" s="10"/>
+      <c r="C301" s="10"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="12" t="s">
+      <c r="A302" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B302" s="12"/>
-      <c r="C302" s="12"/>
-      <c r="D302" s="12"/>
-      <c r="E302" s="12"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="10"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="10"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="12" t="s">
+      <c r="A303" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B303" s="12"/>
-      <c r="C303" s="12"/>
-      <c r="D303" s="12"/>
-      <c r="E303" s="12"/>
+      <c r="B303" s="10"/>
+      <c r="C303" s="10"/>
+      <c r="D303" s="10"/>
+      <c r="E303" s="10"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="12" t="s">
+      <c r="A304" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B304" s="12"/>
-      <c r="C304" s="12"/>
-      <c r="D304" s="12"/>
-      <c r="E304" s="12" t="s">
+      <c r="B304" s="10"/>
+      <c r="C304" s="10"/>
+      <c r="D304" s="10"/>
+      <c r="E304" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C306" s="6"/>
+      <c r="C306" s="71"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C307" s="4" t="s">
+      <c r="C307" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D307" s="4" t="s">
+      <c r="D307" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E307" s="4" t="s">
+      <c r="E307" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="12"/>
-      <c r="B308" s="12"/>
-      <c r="C308" s="12"/>
-      <c r="D308" s="12" t="s">
+      <c r="A308" s="10"/>
+      <c r="B308" s="10"/>
+      <c r="C308" s="10"/>
+      <c r="D308" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E308" s="12" t="s">
+      <c r="E308" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="12"/>
-      <c r="B309" s="12"/>
-      <c r="C309" s="12"/>
-      <c r="D309" s="12" t="s">
+      <c r="A309" s="10"/>
+      <c r="B309" s="10"/>
+      <c r="C309" s="10"/>
+      <c r="D309" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E309" s="12"/>
+      <c r="E309" s="10"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="12"/>
-      <c r="B310" s="12"/>
-      <c r="C310" s="12"/>
-      <c r="D310" s="12" t="s">
+      <c r="A310" s="10"/>
+      <c r="B310" s="10"/>
+      <c r="C310" s="10"/>
+      <c r="D310" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="E310" s="12"/>
+      <c r="E310" s="10"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="12"/>
-      <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12" t="s">
+      <c r="A311" s="10"/>
+      <c r="B311" s="10"/>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E311" s="12"/>
+      <c r="E311" s="10"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="12"/>
-      <c r="B312" s="12"/>
-      <c r="C312" s="12"/>
-      <c r="D312" s="12" t="s">
+      <c r="A312" s="10"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
+      <c r="D312" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="E312" s="12"/>
+      <c r="E312" s="10"/>
     </row>
     <row r="314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6" t="s">
+      <c r="C314" s="71"/>
+      <c r="D314" s="71" t="s">
         <v>352</v>
       </c>
-      <c r="E314" s="6"/>
+      <c r="E314" s="71"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
+      <c r="A315" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C315" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D315" s="4" t="s">
+      <c r="D315" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E315" s="4" t="s">
+      <c r="E315" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="11"/>
-      <c r="B316" s="11"/>
-      <c r="C316" s="11"/>
-      <c r="D316" s="11" t="s">
+      <c r="A316" s="9"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="9"/>
+      <c r="D316" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E316" s="11"/>
+      <c r="E316" s="9"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="11"/>
-      <c r="B317" s="11"/>
-      <c r="C317" s="11"/>
-      <c r="D317" s="11" t="s">
+      <c r="A317" s="9"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="9"/>
+      <c r="D317" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E317" s="11"/>
+      <c r="E317" s="9"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="11"/>
-      <c r="B318" s="11"/>
-      <c r="C318" s="11"/>
-      <c r="D318" s="11" t="s">
+      <c r="A318" s="9"/>
+      <c r="B318" s="9"/>
+      <c r="C318" s="9"/>
+      <c r="D318" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E318" s="11"/>
+      <c r="E318" s="9"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="11"/>
-      <c r="B319" s="11"/>
-      <c r="C319" s="11"/>
-      <c r="D319" s="11" t="s">
+      <c r="A319" s="9"/>
+      <c r="B319" s="9"/>
+      <c r="C319" s="9"/>
+      <c r="D319" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="E319" s="11"/>
+      <c r="E319" s="9"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="11"/>
-      <c r="B320" s="11"/>
-      <c r="C320" s="11"/>
-      <c r="D320" s="11" t="s">
+      <c r="A320" s="9"/>
+      <c r="B320" s="9"/>
+      <c r="C320" s="9"/>
+      <c r="D320" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E320" s="11"/>
+      <c r="E320" s="9"/>
     </row>
     <row r="322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="1" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C323" s="4" t="s">
+      <c r="C323" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D323" s="4" t="s">
+      <c r="D323" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E323" s="4" t="s">
+      <c r="E323" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="10" t="s">
+      <c r="A324" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="B324" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C324" s="10" t="s">
+      <c r="C324" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D324" s="10"/>
-      <c r="E324" s="10"/>
+      <c r="D324" s="8"/>
+      <c r="E324" s="8"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="10" t="s">
+      <c r="A325" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="C325" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D325" s="10"/>
-      <c r="E325" s="10"/>
+      <c r="D325" s="8"/>
+      <c r="E325" s="8"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="10"/>
-      <c r="B326" s="10" t="s">
+      <c r="A326" s="8"/>
+      <c r="B326" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C326" s="10"/>
-      <c r="D326" s="10"/>
-      <c r="E326" s="10"/>
+      <c r="C326" s="8"/>
+      <c r="D326" s="8"/>
+      <c r="E326" s="8"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="10" t="s">
+      <c r="A327" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B327" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C327" s="10" t="s">
+      <c r="C327" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D327" s="10"/>
-      <c r="E327" s="10"/>
+      <c r="D327" s="8"/>
+      <c r="E327" s="8"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="10" t="s">
+      <c r="A328" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C328" s="10" t="s">
+      <c r="C328" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D328" s="10"/>
-      <c r="E328" s="10"/>
+      <c r="D328" s="8"/>
+      <c r="E328" s="8"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="10" t="s">
+      <c r="A329" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B329" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C329" s="10" t="s">
+      <c r="C329" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D329" s="10"/>
-      <c r="E329" s="10"/>
+      <c r="D329" s="8"/>
+      <c r="E329" s="8"/>
     </row>
     <row r="331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B331" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C331" s="6"/>
+      <c r="C331" s="71"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="4" t="s">
+      <c r="A332" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B332" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C332" s="4" t="s">
+      <c r="C332" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D332" s="4" t="s">
+      <c r="D332" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E332" s="4" t="s">
+      <c r="E332" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="10"/>
-      <c r="B333" s="10"/>
-      <c r="C333" s="10"/>
-      <c r="D333" s="10" t="s">
+      <c r="A333" s="8"/>
+      <c r="B333" s="8"/>
+      <c r="C333" s="8"/>
+      <c r="D333" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E333" s="10"/>
+      <c r="E333" s="8"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="10"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="10"/>
-      <c r="D334" s="10" t="s">
+      <c r="A334" s="8"/>
+      <c r="B334" s="8"/>
+      <c r="C334" s="8"/>
+      <c r="D334" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E334" s="10"/>
+      <c r="E334" s="8"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="10"/>
-      <c r="B335" s="10"/>
-      <c r="C335" s="10"/>
-      <c r="D335" s="10" t="s">
+      <c r="A335" s="8"/>
+      <c r="B335" s="8"/>
+      <c r="C335" s="8"/>
+      <c r="D335" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E335" s="10"/>
+      <c r="E335" s="8"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="10"/>
-      <c r="B336" s="10"/>
-      <c r="C336" s="10"/>
-      <c r="D336" s="10" t="s">
+      <c r="A336" s="8"/>
+      <c r="B336" s="8"/>
+      <c r="C336" s="8"/>
+      <c r="D336" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E336" s="10"/>
+      <c r="E336" s="8"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="10"/>
-      <c r="B337" s="10"/>
-      <c r="C337" s="10"/>
-      <c r="D337" s="10" t="s">
+      <c r="A337" s="8"/>
+      <c r="B337" s="8"/>
+      <c r="C337" s="8"/>
+      <c r="D337" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E337" s="10"/>
+      <c r="E337" s="8"/>
     </row>
     <row r="339" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
+      <c r="A340" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C340" s="4" t="s">
+      <c r="C340" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D340" s="4" t="s">
+      <c r="D340" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E340" s="4" t="s">
+      <c r="E340" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C341" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="D341" s="9"/>
-      <c r="E341" s="9"/>
+      <c r="D341" s="7"/>
+      <c r="E341" s="7"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="C342" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D342" s="9"/>
-      <c r="E342" s="9"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="7"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="9"/>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9"/>
-      <c r="D343" s="9" t="s">
+      <c r="A343" s="7"/>
+      <c r="B343" s="7"/>
+      <c r="C343" s="7"/>
+      <c r="D343" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="E343" s="9"/>
+      <c r="E343" s="7"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C344" s="9" t="s">
+      <c r="C344" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D344" s="9"/>
-      <c r="E344" s="9"/>
+      <c r="D344" s="7"/>
+      <c r="E344" s="7"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="C345" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D345" s="9"/>
-      <c r="E345" s="9"/>
+      <c r="D345" s="7"/>
+      <c r="E345" s="7"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C346" s="9" t="s">
+      <c r="C346" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D346" s="9"/>
-      <c r="E346" s="9"/>
+      <c r="D346" s="7"/>
+      <c r="E346" s="7"/>
     </row>
     <row r="348" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B348" s="6" t="s">
+      <c r="B348" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C348" s="6"/>
+      <c r="C348" s="71"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="4" t="s">
+      <c r="A349" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B349" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C349" s="4" t="s">
+      <c r="C349" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D349" s="4" t="s">
+      <c r="D349" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E349" s="4" t="s">
+      <c r="E349" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="8"/>
-      <c r="B350" s="8"/>
-      <c r="C350" s="8"/>
-      <c r="D350" s="8" t="s">
+      <c r="A350" s="6"/>
+      <c r="B350" s="6"/>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E350" s="8"/>
+      <c r="E350" s="6"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="8"/>
-      <c r="B351" s="8"/>
-      <c r="C351" s="8"/>
-      <c r="D351" s="8" t="s">
+      <c r="A351" s="6"/>
+      <c r="B351" s="6"/>
+      <c r="C351" s="6"/>
+      <c r="D351" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E351" s="8"/>
+      <c r="E351" s="6"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="8"/>
-      <c r="B352" s="8"/>
-      <c r="C352" s="8"/>
-      <c r="D352" s="8" t="s">
+      <c r="A352" s="6"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E352" s="8"/>
+      <c r="E352" s="6"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="8"/>
-      <c r="B353" s="8"/>
-      <c r="C353" s="8"/>
-      <c r="D353" s="8" t="s">
+      <c r="A353" s="6"/>
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E353" s="8"/>
+      <c r="E353" s="6"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="8"/>
-      <c r="B354" s="8"/>
-      <c r="C354" s="8"/>
-      <c r="D354" s="8" t="s">
+      <c r="A354" s="6"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="E354" s="8" t="s">
+      <c r="E354" s="6" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B356" s="6" t="s">
+      <c r="B356" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="C356" s="6"/>
+      <c r="C356" s="71"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
+      <c r="A357" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C357" s="4" t="s">
+      <c r="C357" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D357" s="4" t="s">
+      <c r="D357" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E357" s="4" t="s">
+      <c r="E357" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="7"/>
-      <c r="B358" s="7"/>
-      <c r="C358" s="7"/>
-      <c r="D358" s="7" t="s">
+      <c r="A358" s="5"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E358" s="7"/>
+      <c r="E358" s="5"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
-      <c r="C359" s="7"/>
-      <c r="D359" s="7" t="s">
+      <c r="A359" s="5"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E359" s="7"/>
+      <c r="E359" s="5"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
-      <c r="C360" s="7"/>
-      <c r="D360" s="7" t="s">
+      <c r="A360" s="5"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E360" s="7"/>
+      <c r="E360" s="5"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="7"/>
-      <c r="B361" s="7"/>
-      <c r="C361" s="7"/>
-      <c r="D361" s="7" t="s">
+      <c r="A361" s="5"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E361" s="7"/>
+      <c r="E361" s="5"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
-      <c r="C362" s="7"/>
-      <c r="D362" s="7" t="s">
+      <c r="A362" s="5"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E362" s="7"/>
+      <c r="E362" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B290:C290"/>
     <mergeCell ref="B298:C298"/>
     <mergeCell ref="B306:C306"/>
     <mergeCell ref="B202:C202"/>
@@ -5617,42 +5607,52 @@
     <mergeCell ref="D202:E202"/>
     <mergeCell ref="B210:C210"/>
     <mergeCell ref="D210:E210"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="B356:C356"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" location="'Holy Sites'!A48" display="Jump to…" xr:uid="{90FF426D-321E-42F6-A7B9-00C4FD1C8DA7}"/>
-    <hyperlink ref="B6" location="'Holy Sites'!A58" display="Jump to…" xr:uid="{27B5A71B-7E0F-4421-AE1B-895A78500F13}"/>
-    <hyperlink ref="B7" location="'Holy Sites'!A62" display="Jump to…" xr:uid="{9C28E3C0-B912-44EC-9F44-C631BB0FF073}"/>
-    <hyperlink ref="B8" location="'Holy Sites'!A70" display="Jump to…" xr:uid="{C27421C5-C99B-4734-87F5-9F77535EB09E}"/>
-    <hyperlink ref="B9" location="'Holy Sites'!A78" display="Jump to…" xr:uid="{8B9921A7-0ED6-42B2-8615-6613E64F0BD2}"/>
-    <hyperlink ref="B10" location="'Holy Sites'!A86" display="Jump to…" xr:uid="{13146C85-96D1-4858-BF2C-FBEF40444B0E}"/>
-    <hyperlink ref="B11" location="'Holy Sites'!A95" display="Jump to…" xr:uid="{696B697A-8F38-4397-9DF6-E908761F20F5}"/>
-    <hyperlink ref="B12" location="'Holy Sites'!A104" display="Jump to…" xr:uid="{C9371A69-1848-4815-B894-7F51F1FEE7DC}"/>
-    <hyperlink ref="B13" location="'Holy Sites'!A116" display="Jump to…" xr:uid="{14CFB25B-DA67-42E2-AD4A-01F81047F1FE}"/>
-    <hyperlink ref="B14" location="'Holy Sites'!A127" display="Jump to…" xr:uid="{7EA1C648-D4B4-4050-BC3B-92A4FBF33CAE}"/>
-    <hyperlink ref="B15" location="'Holy Sites'!A138" display="Jump to…" xr:uid="{BF9B6360-011A-4FF7-801D-0982227C55CD}"/>
-    <hyperlink ref="B16" location="'Holy Sites'!A153" display="Jump to…" xr:uid="{E28832ED-B170-463B-8795-5586AFCE2E89}"/>
-    <hyperlink ref="B17" location="'Holy Sites'!A157" display="Jump to…" xr:uid="{D7276509-6901-491B-9418-DFF258383414}"/>
-    <hyperlink ref="B18" location="'Holy Sites'!A166" display="Jump to…" xr:uid="{CEF111C2-A82C-4FA8-A740-E4A6974B969C}"/>
-    <hyperlink ref="B19" location="'Holy Sites'!A174" display="Jump to…" xr:uid="{B3C8AFE7-85B6-4C7E-AEB9-6A80FD1FB020}"/>
-    <hyperlink ref="B20" location="'Holy Sites'!A183" display="Jump to…" xr:uid="{DB319478-928F-4F9E-BD9B-7573B4DCB0D2}"/>
-    <hyperlink ref="B21" location="'Holy Sites'!A191" display="Jump to…" xr:uid="{A2FE33AE-26CA-4628-8EE5-F8AFA40EEA55}"/>
-    <hyperlink ref="B22" location="'Holy Sites'!A200" display="Jump to…" xr:uid="{7F91B0CF-95BF-4ED6-ABC2-FA4D650F21DD}"/>
-    <hyperlink ref="B23" location="'Holy Sites'!A208" display="Jump to…" xr:uid="{F580E7C0-B060-4112-9D46-76C475F811A0}"/>
-    <hyperlink ref="B24" location="'Holy Sites'!A216" display="Jump to…" xr:uid="{FBC22B6A-34BD-4396-89DA-BB48B50BDC81}"/>
-    <hyperlink ref="B25" location="'Holy Sites'!A228" display="Jump to…" xr:uid="{E80D5863-FA58-4D0B-8744-C2971383805F}"/>
-    <hyperlink ref="B26" location="'Holy Sites'!A241" display="Jump to…" xr:uid="{7646FE6F-9D06-4EAF-BDD8-819F81B704A6}"/>
-    <hyperlink ref="B27" location="'Holy Sites'!A255" display="Jump to…" xr:uid="{2305C3D4-F5FE-45A6-9E34-C616DAA4A637}"/>
-    <hyperlink ref="B28" location="'Holy Sites'!A263" display="Jump to…" xr:uid="{C29FBAED-3518-4005-BD5D-ADC062F7E655}"/>
-    <hyperlink ref="B30" location="'Holy Sites'!A280" display="Jump to…" xr:uid="{A8C865F8-C0A4-425C-9475-81A5A27477A7}"/>
-    <hyperlink ref="B29" location="'Holy Sites'!A272" display="Jump to…" xr:uid="{2298F037-02C8-422D-A7F9-C26E51D4A8C4}"/>
-    <hyperlink ref="B31" location="'Holy Sites'!A288" display="Jump to…" xr:uid="{98452AD8-3BAA-4154-B0D4-BD21125A0391}"/>
-    <hyperlink ref="B32" location="'Holy Sites'!A296" display="Jump to…" xr:uid="{A25D94AA-B6A6-42C7-A13B-9F65C0C7FB3E}"/>
-    <hyperlink ref="B33" location="'Holy Sites'!A312" display="Jump to…" xr:uid="{A0BD484A-8305-4005-8CAA-409D926BA5E0}"/>
-    <hyperlink ref="B34" location="'Holy Sites'!A320" display="Jump to…" xr:uid="{E6DA8A18-A5DB-4A55-B3D4-6824F49D0FD9}"/>
-    <hyperlink ref="B35" location="'Holy Sites'!A337" display="Jump to…" xr:uid="{5854F89C-8E20-4DCF-8407-F854C2B5BF36}"/>
-    <hyperlink ref="B36" location="'Holy Sites'!A346" display="Jump to…" xr:uid="{330D9DE3-C4DF-46FF-A4A8-4E464E317772}"/>
-    <hyperlink ref="B37" location="'Holy Sites'!A354" display="Jump to…" xr:uid="{E0E980DE-F6A9-46D0-B51E-DDBBF0DA7943}"/>
-    <hyperlink ref="B38" location="'Holy Sites'!A362" display="Jump to…" xr:uid="{E987E6BE-6407-446E-AF0B-126EBDC6D42C}"/>
+    <hyperlink ref="B5" location="'Holy Sites'!A48" display="Jump to…"/>
+    <hyperlink ref="B6" location="'Holy Sites'!A58" display="Jump to…"/>
+    <hyperlink ref="B7" location="'Holy Sites'!A62" display="Jump to…"/>
+    <hyperlink ref="B8" location="'Holy Sites'!A70" display="Jump to…"/>
+    <hyperlink ref="B9" location="'Holy Sites'!A78" display="Jump to…"/>
+    <hyperlink ref="B10" location="'Holy Sites'!A86" display="Jump to…"/>
+    <hyperlink ref="B11" location="'Holy Sites'!A95" display="Jump to…"/>
+    <hyperlink ref="B12" location="'Holy Sites'!A104" display="Jump to…"/>
+    <hyperlink ref="B13" location="'Holy Sites'!A116" display="Jump to…"/>
+    <hyperlink ref="B14" location="'Holy Sites'!A127" display="Jump to…"/>
+    <hyperlink ref="B15" location="'Holy Sites'!A138" display="Jump to…"/>
+    <hyperlink ref="B16" location="'Holy Sites'!A153" display="Jump to…"/>
+    <hyperlink ref="B17" location="'Holy Sites'!A157" display="Jump to…"/>
+    <hyperlink ref="B18" location="'Holy Sites'!A166" display="Jump to…"/>
+    <hyperlink ref="B19" location="'Holy Sites'!A174" display="Jump to…"/>
+    <hyperlink ref="B20" location="'Holy Sites'!A183" display="Jump to…"/>
+    <hyperlink ref="B21" location="'Holy Sites'!A191" display="Jump to…"/>
+    <hyperlink ref="B22" location="'Holy Sites'!A200" display="Jump to…"/>
+    <hyperlink ref="B23" location="'Holy Sites'!A208" display="Jump to…"/>
+    <hyperlink ref="B24" location="'Holy Sites'!A216" display="Jump to…"/>
+    <hyperlink ref="B25" location="'Holy Sites'!A228" display="Jump to…"/>
+    <hyperlink ref="B26" location="'Holy Sites'!A241" display="Jump to…"/>
+    <hyperlink ref="B27" location="'Holy Sites'!A255" display="Jump to…"/>
+    <hyperlink ref="B28" location="'Holy Sites'!A263" display="Jump to…"/>
+    <hyperlink ref="B30" location="'Holy Sites'!A280" display="Jump to…"/>
+    <hyperlink ref="B29" location="'Holy Sites'!A272" display="Jump to…"/>
+    <hyperlink ref="B31" location="'Holy Sites'!A288" display="Jump to…"/>
+    <hyperlink ref="B32" location="'Holy Sites'!A296" display="Jump to…"/>
+    <hyperlink ref="B33" location="'Holy Sites'!A312" display="Jump to…"/>
+    <hyperlink ref="B34" location="'Holy Sites'!A320" display="Jump to…"/>
+    <hyperlink ref="B35" location="'Holy Sites'!A337" display="Jump to…"/>
+    <hyperlink ref="B36" location="'Holy Sites'!A346" display="Jump to…"/>
+    <hyperlink ref="B37" location="'Holy Sites'!A354" display="Jump to…"/>
+    <hyperlink ref="B38" location="'Holy Sites'!A362" display="Jump to…"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
